--- a/data/fao_trade_matching/fao_landings_codes_AGN.xlsx
+++ b/data/fao_trade_matching/fao_landings_codes_AGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredogiron/Documents/R/fishmar/data/fao_trade_matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4954B88-EA42-2B4E-9E59-A1C8BB23553E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0822B7E-9D4E-4A42-907D-BA90E5F3A50A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{7CD02AAA-F4B6-2545-9FC5-172D00F74FC7}"/>
+    <workbookView xWindow="-36540" yWindow="5260" windowWidth="28800" windowHeight="15800" xr2:uid="{7CD02AAA-F4B6-2545-9FC5-172D00F74FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="fao_landings" sheetId="4" r:id="rId1"/>
@@ -11891,10 +11891,10 @@
   <dimension ref="A1:O800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B784" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L795" sqref="L795"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
